--- a/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
+++ b/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -85,10 +85,43 @@
     <t xml:space="preserve"> Finish Glossary </t>
   </si>
   <si>
+    <t xml:space="preserve">BRD Phase 1 - 3 Features, trello board </t>
+  </si>
+  <si>
     <t>WAGMI</t>
   </si>
   <si>
     <t>Hopeful of new class colaboration of brd</t>
+  </si>
+  <si>
+    <t>Need to parallely work on reasearching for project planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish Glossary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasn't able to work on trello </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the LLI creation user stories as a template </t>
+  </si>
+  <si>
+    <t>focus on implementing LLI creation/managemnet, as rec engine/calendar relies on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasn't able to work </t>
+  </si>
+  <si>
+    <t>User stories for all features</t>
+  </si>
+  <si>
+    <t>reasearching for project planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished Glossary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helping out other team members due to poor sprint planning </t>
   </si>
 </sst>
 </file>
@@ -459,7 +492,7 @@
     <col customWidth="1" min="3" max="3" width="53.88"/>
     <col customWidth="1" min="4" max="4" width="56.75"/>
     <col customWidth="1" min="5" max="5" width="16.63"/>
-    <col customWidth="1" min="6" max="6" width="60.25"/>
+    <col customWidth="1" min="6" max="6" width="62.88"/>
     <col customWidth="1" min="7" max="26" width="16.63"/>
   </cols>
   <sheetData>
@@ -639,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
@@ -656,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -671,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -685,7 +718,9 @@
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
@@ -696,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
@@ -708,42 +743,75 @@
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">

--- a/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
+++ b/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t xml:space="preserve">Helping out other team members due to poor sprint planning </t>
+  </si>
+  <si>
+    <t>Trello board expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDR Phase 1 - Make user stories for Geospatial Map and LLI Reminder </t>
+  </si>
+  <si>
+    <t>Wasn't able to work</t>
+  </si>
+  <si>
+    <t>Phong handled LLI creation/ management, doing story 2 for rec engine</t>
+  </si>
+  <si>
+    <t>Continue BRD Phase 1 - 3 Features</t>
   </si>
 </sst>
 </file>
@@ -492,7 +507,7 @@
     <col customWidth="1" min="3" max="3" width="53.88"/>
     <col customWidth="1" min="4" max="4" width="56.75"/>
     <col customWidth="1" min="5" max="5" width="16.63"/>
-    <col customWidth="1" min="6" max="6" width="62.88"/>
+    <col customWidth="1" min="6" max="6" width="67.88"/>
     <col customWidth="1" min="7" max="26" width="16.63"/>
   </cols>
   <sheetData>
@@ -820,16 +835,28 @@
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24">
@@ -837,24 +864,42 @@
       <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="15"/>
       <c r="F26" s="14"/>
     </row>

--- a/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
+++ b/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>Continue BRD Phase 1 - 3 Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on BRD features tasks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on feedback given by professor </t>
+  </si>
+  <si>
+    <t>fixing the user stories</t>
+  </si>
+  <si>
+    <t>quantify requierments</t>
+  </si>
+  <si>
+    <t>researching for project planning (milestone 1)</t>
   </si>
 </sst>
 </file>
@@ -146,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -165,6 +180,10 @@
       <scheme val="minor"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -190,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -240,6 +259,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -248,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,7 +310,13 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -920,13 +953,17 @@
       <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30">
@@ -934,16 +971,16 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="10"/>
       <c r="E31" s="15"/>
       <c r="F31" s="14"/>
@@ -979,8 +1016,8 @@
       <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="F35" s="7"/>
     </row>
     <row r="36">
@@ -1000,23 +1037,43 @@
       <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="C38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F39" s="8"/>
     </row>
     <row r="40">
@@ -1024,17 +1081,27 @@
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="F40" s="7"/>
+      <c r="C40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="E41" s="15"/>
       <c r="F41" s="14"/>
     </row>
@@ -1069,8 +1136,8 @@
       <c r="B45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="F45" s="7"/>
     </row>
     <row r="46">
@@ -1114,8 +1181,8 @@
       <c r="B50" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51">

--- a/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
+++ b/Scrum Artifacts/Sprint1/Standup Tracker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -145,13 +145,22 @@
     <t xml:space="preserve">Work on feedback given by professor </t>
   </si>
   <si>
-    <t>fixing the user stories</t>
+    <t xml:space="preserve">fixing the user stories, format the table </t>
   </si>
   <si>
     <t>quantify requierments</t>
   </si>
   <si>
     <t>researching for project planning (milestone 1)</t>
+  </si>
+  <si>
+    <t>BRD Phase 1  Features</t>
+  </si>
+  <si>
+    <t>Continue BRD Phase 1 Features</t>
+  </si>
+  <si>
+    <t>FINISH BRD!</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1001,10 @@
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="5"/>
@@ -1112,43 +1121,77 @@
       <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5"/>
       <c r="B43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="C43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="C44" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="F45" s="7"/>
+      <c r="C45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
